--- a/biology/Médecine/Groupe_hospitalier_Bretagne_Sud/Groupe_hospitalier_Bretagne_Sud.xlsx
+++ b/biology/Médecine/Groupe_hospitalier_Bretagne_Sud/Groupe_hospitalier_Bretagne_Sud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Groupe Hospitalier Bretagne Sud (GHBS) est un etablissement public de santé crée au 1er janvier 2018 à l'issue du regroupement du centre hospitalier bretagne sud (CHBS), du centre hospitalier du Faouët, du centre hospitalier de port-Louis/Riantec et du centre hospitalier de Quimperlé.
@@ -512,9 +524,11 @@
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021 le GHBS compte[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021 le GHBS compte :
 3 327 personnels soignants
 562 personnels administratifs et de direction
 390 personnels techniques et ouvriers
@@ -523,7 +537,7 @@
 40 personnels socio-éducatifs
 85 personnels de rééducation
 soit un total de 5 089 agents dont 167 mis à disposition de la clinique du Ter.
-Il a procédé cette même année à 257 706 consultations externes, 16 083 interventions de chirurgie générale et gynécologiques ainsi que 89 791 passages aux urgences ayant conduit à 26 503 hospitalisations[1].
+Il a procédé cette même année à 257 706 consultations externes, 16 083 interventions de chirurgie générale et gynécologiques ainsi que 89 791 passages aux urgences ayant conduit à 26 503 hospitalisations.
 </t>
         </is>
       </c>
@@ -552,97 +566,102 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le GHBS compte 17 sites sur 9 communes différentes regroupés en 4 zones :
-15 établissements de soins
-Zone "Lorient/Hennebont/Plœmeur"
-Hôpital du Scorff (Lorient)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le GHBS compte 17 sites sur 9 communes différentes regroupés en 4 zones :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15 établissements de soins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zone "Lorient/Hennebont/Plœmeur"</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hôpital du Scorff (Lorient)
 Institut de Formation des Professionnels de Santé (Lorient)
 EHPAD  "La Colline" (Hennebont)
 Centre de réadaptation et de gériatrie Eudo de Kerlivio (Hennebont)
 Centre de Gérontologie - Clinique de Kerbernès (Plœmeur)
-Unité de consultation - Soins ambulatoires (UCSA) (Plœmeur)
-Zone "Quimperlé/Moëlan/Scaër"
-Hôpital de la Villeneuve (Quimperlé)
+Unité de consultation - Soins ambulatoires (UCSA) (Plœmeur)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15 établissements de soins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Zone "Quimperlé/Moëlan/Scaër"</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hôpital de la Villeneuve (Quimperlé)
 Pôle psychiatrique de Kerglanchard (Quimperlé)
 Centre médico psycholgique (CMP) Saint-Michel (Quimperlé)
 CMP de Scaër
 EHPAD de Bois Joly (Quimperlé)
-EHPAD de Moëlan sur Mer
-Zone "Le Faouët"
-Hôpital du Faouët
-Zone "Riantec"
-Hôpital Riantec
-Le GHBS est aussi propriétaire de la Clinique du Ter (Plœmeur) depuis le 28/02/2019 au travers d'un groupement de coopération sanitaire qui le lie à l’association des praticiens libéraux intervenant à la clinique. Ce groupement permet l'autonomie de gestion des praticiens de la clinique[2].
-2 établissements de formation
-Le centre de Simulation en Santé du Scorff (C3S)
-L'institut de formation de professionnels de santé (IFPS)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Groupe_hospitalier_Bretagne_Sud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Formation et recherche</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'établissement propose aussi une offre de formation et de recherche. Il forme environ 300 infirmiers, aides soignants et ambulanciers par an[1]. Il propose aussi plusieurs formations continue à destination des professionnels de santé. Son Centre de Simulation en Santé du Scorff et son institut de formation de professionnels de santé accueillent plus de 700 stagiaires par an à cet effet[3],[4].
-Dans le champ de la recherche en cancérologie, l'Institut National du Cancer a décerné en 2007 au Centre Hospitalier Bretagne Sud (CHBS) puis au GHBS le label "équipe de recherche clinique en cancérologie" soutenu par des crédits "Missions d’Enseignement, de Recherche, de Référence et d’Innovation" (MERRI) du ministère de la Santé depuis cette date. La clinique du Ter bénéficie aussi de ce dispositif[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Groupe_hospitalier_Bretagne_Sud</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Géographie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le GHBS dessert le territoire de démocratie en santé
-[5] de "Lorient-Quimperlé" située à cheval entre le nord ouest du département du Morbihan et le sud est du Finistère.
-Il dessert les agglomérations du Blavet, de Lorient, de Quimperlé et du Roi Morvan. Cette zone regroupe environ 300 000 habitants à la création de l'établissement en 2018, dont un peu plus du quart de la population Morbihanaise. Il dessert ainsi l'aire urbaine de Lorient, 1ere agglomération du département et 3eme de la région Bretagne.
-</t>
+EHPAD de Moëlan sur Mer</t>
         </is>
       </c>
     </row>
@@ -667,12 +686,202 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15 établissements de soins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Zone "Le Faouët"</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hôpital du Faouët</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>15 établissements de soins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Zone "Riantec"</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hôpital Riantec
+Le GHBS est aussi propriétaire de la Clinique du Ter (Plœmeur) depuis le 28/02/2019 au travers d'un groupement de coopération sanitaire qui le lie à l’association des praticiens libéraux intervenant à la clinique. Ce groupement permet l'autonomie de gestion des praticiens de la clinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2 établissements de formation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le centre de Simulation en Santé du Scorff (C3S)
+L'institut de formation de professionnels de santé (IFPS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formation et recherche</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'établissement propose aussi une offre de formation et de recherche. Il forme environ 300 infirmiers, aides soignants et ambulanciers par an. Il propose aussi plusieurs formations continue à destination des professionnels de santé. Son Centre de Simulation en Santé du Scorff et son institut de formation de professionnels de santé accueillent plus de 700 stagiaires par an à cet effet,.
+Dans le champ de la recherche en cancérologie, l'Institut National du Cancer a décerné en 2007 au Centre Hospitalier Bretagne Sud (CHBS) puis au GHBS le label "équipe de recherche clinique en cancérologie" soutenu par des crédits "Missions d’Enseignement, de Recherche, de Référence et d’Innovation" (MERRI) du ministère de la Santé depuis cette date. La clinique du Ter bénéficie aussi de ce dispositif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le GHBS dessert le territoire de démocratie en santé
+ de "Lorient-Quimperlé" située à cheval entre le nord ouest du département du Morbihan et le sud est du Finistère.
+Il dessert les agglomérations du Blavet, de Lorient, de Quimperlé et du Roi Morvan. Cette zone regroupe environ 300 000 habitants à la création de l'établissement en 2018, dont un peu plus du quart de la population Morbihanaise. Il dessert ainsi l'aire urbaine de Lorient, 1ere agglomération du département et 3eme de la région Bretagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalier_Bretagne_Sud</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la création de l’établissent, la création d'un logo pour le GHBS a été confié à l'agence LC Design afin de remplacer les identités existantes de chacun des anciens établissements du groupement. Le choix a été fait de jouer sur le H de hospitalier et de procéder à un jeu autour de la chaîne ADN[6].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la création de l’établissent, la création d'un logo pour le GHBS a été confié à l'agence LC Design afin de remplacer les identités existantes de chacun des anciens établissements du groupement. Le choix a été fait de jouer sur le H de hospitalier et de procéder à un jeu autour de la chaîne ADN.
 			Ancien logo des établissements du GHBS
 			Logo du GHBS après 2018
 </t>
